--- a/data/sample_dataset.xlsx
+++ b/data/sample_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osgrant\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osgrant\Desktop\Git hub repositories\eMBLEM-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5113EAE4-1153-45A6-AF08-100A1716E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE81CAA-A023-499A-8E36-E86463E9AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16320C17-0EA9-40B2-921F-E938C7DB673E}"/>
   </bookViews>
@@ -66,19 +66,10 @@
     <t>journal_id</t>
   </si>
   <si>
-    <t>pad_type</t>
-  </si>
-  <si>
     <t>overnight</t>
   </si>
   <si>
     <t>long</t>
-  </si>
-  <si>
-    <t>ah_volume</t>
-  </si>
-  <si>
-    <t>emblem_volume</t>
   </si>
   <si>
     <t>emblem_error</t>
@@ -88,6 +79,15 @@
   </si>
   <si>
     <t>Overlapped Area Percentage BACK</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ah_metric</t>
+  </si>
+  <si>
+    <t>emblem_metric</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4524A480-747A-4B56-BD77-5EC8808A48BE}">
   <dimension ref="A1:G684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="I677" sqref="I677"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,22 +556,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -579,7 +579,7 @@
         <v>14651</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4">
         <v>9.0241848983700006</v>
@@ -604,7 +604,7 @@
         <v>14652</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>10.771819407000001</v>
@@ -625,7 +625,7 @@
         <v>14653</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>4.0829965477799997</v>
@@ -646,7 +646,7 @@
         <v>14655</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
         <v>3.63891158776</v>
@@ -667,7 +667,7 @@
         <v>14656</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>5.4023176536099999</v>
@@ -691,7 +691,7 @@
         <v>14657</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
         <v>1.64248166776</v>
@@ -712,7 +712,7 @@
         <v>14658</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <v>0.89169285024099998</v>
@@ -733,7 +733,7 @@
         <v>14659</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5">
         <v>1.40339529633</v>
@@ -754,7 +754,7 @@
         <v>14660</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
         <v>0.76529231877100001</v>
@@ -775,7 +775,7 @@
         <v>14661</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <v>0.25006726372100002</v>
@@ -796,7 +796,7 @@
         <v>14662</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4">
         <v>0.52365923905599998</v>
@@ -817,7 +817,7 @@
         <v>14663</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5">
         <v>0.58675084956400003</v>
@@ -838,7 +838,7 @@
         <v>14664</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4">
         <v>0.15305865649399999</v>
@@ -859,7 +859,7 @@
         <v>14665</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
         <v>9.2697349143299995E-2</v>
@@ -880,7 +880,7 @@
         <v>14666</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4">
         <v>0.14300743112100001</v>
@@ -901,7 +901,7 @@
         <v>14667</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="5">
         <v>0.234977057346</v>
@@ -922,7 +922,7 @@
         <v>14668</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4">
         <v>0.71786590998699995</v>
@@ -943,7 +943,7 @@
         <v>14669</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <v>0.301805573055</v>
@@ -964,7 +964,7 @@
         <v>14670</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
         <v>0.41009468485799999</v>
@@ -985,7 +985,7 @@
         <v>14671</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
         <v>0.18755048794500001</v>
@@ -1006,7 +1006,7 @@
         <v>14672</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4">
         <v>0.26515763071300003</v>
@@ -1027,7 +1027,7 @@
         <v>14673</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="5">
         <v>7.3295563451399995E-2</v>
@@ -1048,7 +1048,7 @@
         <v>14677</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <v>0.45286246324000001</v>
@@ -1069,7 +1069,7 @@
         <v>14678</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="5">
         <v>0.74273840514199996</v>
@@ -1090,7 +1090,7 @@
         <v>14681</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="4">
         <v>0.17436230314599999</v>
@@ -1111,7 +1111,7 @@
         <v>14682</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="5">
         <v>4.1303508426300004</v>
@@ -1132,7 +1132,7 @@
         <v>14684</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
         <v>4.4181707905699996</v>
@@ -1153,7 +1153,7 @@
         <v>14685</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5">
         <v>0.90351596814799995</v>
@@ -1174,7 +1174,7 @@
         <v>14686</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="4">
         <v>3.7974766186000002</v>
@@ -1195,7 +1195,7 @@
         <v>14687</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="5">
         <v>3.93560817507</v>
@@ -1216,7 +1216,7 @@
         <v>14688</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="4">
         <v>0.47017712741500001</v>
@@ -1237,7 +1237,7 @@
         <v>14691</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="5">
         <v>0.46421165083900001</v>
@@ -1258,7 +1258,7 @@
         <v>14693</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4">
         <v>1.7889127301600001</v>
@@ -1279,7 +1279,7 @@
         <v>14694</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="5">
         <v>15.6699707008</v>
@@ -1300,7 +1300,7 @@
         <v>14695</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="4">
         <v>2.65393146594</v>
@@ -1321,7 +1321,7 @@
         <v>14696</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="5">
         <v>1.0704427946699999</v>
@@ -1342,7 +1342,7 @@
         <v>14697</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4">
         <v>6.5804817012700001</v>
@@ -1366,7 +1366,7 @@
         <v>14699</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="5">
         <v>8.2674942964899998</v>
@@ -1390,7 +1390,7 @@
         <v>14700</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4">
         <v>1.24699162622</v>
@@ -1411,7 +1411,7 @@
         <v>14702</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="5">
         <v>9.6963606705400007</v>
@@ -1435,7 +1435,7 @@
         <v>14703</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="4">
         <v>4.42700728225</v>
@@ -1459,7 +1459,7 @@
         <v>14705</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="5">
         <v>10.167156458299999</v>
@@ -1483,7 +1483,7 @@
         <v>14706</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="4">
         <v>26.440544895399999</v>
@@ -1507,7 +1507,7 @@
         <v>14707</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="5">
         <v>3.6183200962600002</v>
@@ -1528,7 +1528,7 @@
         <v>14708</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4">
         <v>7.2855642827900002</v>
@@ -1549,7 +1549,7 @@
         <v>14709</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="5">
         <v>3.0220291341299998</v>
@@ -1570,7 +1570,7 @@
         <v>14710</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="4">
         <v>6.4925026502399996</v>
@@ -1591,7 +1591,7 @@
         <v>14711</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="5">
         <v>6.6250477212899996</v>
@@ -1612,7 +1612,7 @@
         <v>14712</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4">
         <v>2.54044340568</v>
@@ -1633,7 +1633,7 @@
         <v>14714</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="5">
         <v>6.1412580309100004</v>
@@ -1654,7 +1654,7 @@
         <v>14715</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4">
         <v>2.4047798246799998</v>
@@ -1675,7 +1675,7 @@
         <v>14716</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="5">
         <v>5.84965874293</v>
@@ -1699,7 +1699,7 @@
         <v>14717</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4">
         <v>4.0866387843099998</v>
@@ -1723,7 +1723,7 @@
         <v>14718</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="5">
         <v>8.4409158200899999</v>
@@ -1744,7 +1744,7 @@
         <v>14720</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="4">
         <v>9.6420137069499994</v>
@@ -1765,7 +1765,7 @@
         <v>14721</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="5">
         <v>12.3570849164</v>
@@ -1786,7 +1786,7 @@
         <v>14722</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="4">
         <v>0.32452223670899999</v>
@@ -1807,7 +1807,7 @@
         <v>14723</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="5">
         <v>0.46611703618099998</v>
@@ -1828,7 +1828,7 @@
         <v>14724</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="4">
         <v>0.11045433559999999</v>
@@ -1849,7 +1849,7 @@
         <v>14725</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="5">
         <v>2.00708030924</v>
@@ -1870,7 +1870,7 @@
         <v>14726</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="4">
         <v>0.41442491583300001</v>
@@ -1891,7 +1891,7 @@
         <v>14729</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="5">
         <v>1.96089868341</v>
@@ -1912,7 +1912,7 @@
         <v>14730</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="4">
         <v>7.5850519877999997E-2</v>
@@ -1933,7 +1933,7 @@
         <v>14731</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="5">
         <v>5.3175243668499999</v>
@@ -1954,7 +1954,7 @@
         <v>14732</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4">
         <v>5.7171786616500002</v>
@@ -1975,7 +1975,7 @@
         <v>14733</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="5">
         <v>2.9617948301300001</v>
@@ -1999,7 +1999,7 @@
         <v>14734</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="4">
         <v>5.4426141611099998</v>
@@ -2023,7 +2023,7 @@
         <v>14735</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="5">
         <v>3.9510065908400001</v>
@@ -2044,7 +2044,7 @@
         <v>14736</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="4">
         <v>2.9267439934300001</v>
@@ -2065,7 +2065,7 @@
         <v>14737</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="5">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>14739</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="4">
         <v>17.6013549591</v>
@@ -2110,7 +2110,7 @@
         <v>14740</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="5">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>14742</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4">
         <v>0.34531991431800002</v>
@@ -2152,7 +2152,7 @@
         <v>14743</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="5">
         <v>4.7905693256700001E-2</v>
@@ -2173,7 +2173,7 @@
         <v>14745</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4">
         <v>8.2931449343000008</v>
@@ -2197,7 +2197,7 @@
         <v>14746</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" s="5">
         <v>0.28515925715899998</v>
@@ -2218,7 +2218,7 @@
         <v>14747</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4">
         <v>9.1347019417199991E-3</v>
@@ -2239,7 +2239,7 @@
         <v>14748</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" s="5">
         <v>18.507419884299999</v>
@@ -2260,7 +2260,7 @@
         <v>14749</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" s="4">
         <v>1.4168849085899999</v>
@@ -2281,7 +2281,7 @@
         <v>14750</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" s="5">
         <v>0.38593469155799998</v>
@@ -2302,7 +2302,7 @@
         <v>14751</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="4">
         <v>0.76636549324199998</v>
@@ -2323,7 +2323,7 @@
         <v>14752</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="5">
         <v>3.3907215976499998</v>
@@ -2344,7 +2344,7 @@
         <v>14753</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="4">
         <v>7.5812256891400001</v>
@@ -2365,7 +2365,7 @@
         <v>14754</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" s="5">
         <v>0.40192024981199997</v>
@@ -2386,7 +2386,7 @@
         <v>14755</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" s="4">
         <v>5.5522318786099998</v>
@@ -2407,7 +2407,7 @@
         <v>14756</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" s="5">
         <v>2.28135335736</v>
@@ -2428,7 +2428,7 @@
         <v>14757</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="4">
         <v>1.5215917649699999</v>
@@ -2449,7 +2449,7 @@
         <v>14758</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" s="5">
         <v>0.833527600358</v>
@@ -2470,7 +2470,7 @@
         <v>14759</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="4">
         <v>1.1036478121</v>
@@ -2491,7 +2491,7 @@
         <v>14760</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" s="5">
         <v>6.4606322878699995E-2</v>
@@ -2512,7 +2512,7 @@
         <v>14761</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4">
         <v>7.0692189753800001</v>
@@ -2533,7 +2533,7 @@
         <v>14762</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="5">
         <v>5.68798541546</v>
@@ -2554,7 +2554,7 @@
         <v>14763</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="4">
         <v>30.0862391149</v>
@@ -2575,7 +2575,7 @@
         <v>14764</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" s="5">
         <v>16.827823603100001</v>
@@ -2596,7 +2596,7 @@
         <v>14765</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4">
         <v>4.3814984369200003</v>
@@ -2617,7 +2617,7 @@
         <v>14766</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" s="5">
         <v>15.1873626355</v>
@@ -2638,7 +2638,7 @@
         <v>14767</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="4">
         <v>18.003946539899999</v>
@@ -2659,7 +2659,7 @@
         <v>14768</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="5">
         <v>11.541331527800001</v>
@@ -2683,7 +2683,7 @@
         <v>14770</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="4">
         <v>12.9714623736</v>
@@ -2707,7 +2707,7 @@
         <v>14773</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="5">
         <v>9.5188423487300007</v>
@@ -2728,7 +2728,7 @@
         <v>14775</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="4">
         <v>14.8476656294</v>
@@ -2749,7 +2749,7 @@
         <v>14776</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="5">
         <v>9.5545709029000001</v>
@@ -2773,7 +2773,7 @@
         <v>14778</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4">
         <v>14.0044694049</v>
@@ -2797,7 +2797,7 @@
         <v>14779</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="5">
         <v>21.568205929099999</v>
@@ -2818,7 +2818,7 @@
         <v>14780</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="4">
         <v>32.819866603900003</v>
@@ -2842,7 +2842,7 @@
         <v>14781</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="5">
         <v>35.064956441500001</v>
@@ -2863,7 +2863,7 @@
         <v>14782</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="4">
         <v>18.457737629499999</v>
@@ -2887,7 +2887,7 @@
         <v>14783</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" s="5">
         <v>32.562303609499999</v>
@@ -2908,7 +2908,7 @@
         <v>14785</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="4">
         <v>24.4735548829</v>
@@ -2929,7 +2929,7 @@
         <v>14786</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" s="5">
         <v>23.374466456499999</v>
@@ -2953,7 +2953,7 @@
         <v>14787</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" s="4">
         <v>20.544849543200002</v>
@@ -2974,7 +2974,7 @@
         <v>14788</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" s="5">
         <v>16.1404093899</v>
@@ -2995,7 +2995,7 @@
         <v>14790</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4">
         <v>17.050047487499999</v>
@@ -3016,7 +3016,7 @@
         <v>14791</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" s="5">
         <v>14.671089032399999</v>
@@ -3040,7 +3040,7 @@
         <v>14792</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="4">
         <v>12.681897622099999</v>
@@ -3064,7 +3064,7 @@
         <v>14793</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="5">
         <v>8.7297038935900009</v>
@@ -3085,7 +3085,7 @@
         <v>14794</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="4">
         <v>17.085344208999999</v>
@@ -3109,7 +3109,7 @@
         <v>14795</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" s="5">
         <v>19.201923528399998</v>
@@ -3130,7 +3130,7 @@
         <v>14796</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" s="4">
         <v>21.6466301924</v>
@@ -3154,7 +3154,7 @@
         <v>14798</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" s="5">
         <v>5.991642487</v>
@@ -3175,7 +3175,7 @@
         <v>14799</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" s="4">
         <v>15.1815441687</v>
@@ -3199,7 +3199,7 @@
         <v>14800</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="5">
         <v>15.2393761109</v>
@@ -3220,7 +3220,7 @@
         <v>14801</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" s="4">
         <v>22.7853544938</v>
@@ -3244,7 +3244,7 @@
         <v>14802</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="5">
         <v>18.170601298699999</v>
@@ -3268,7 +3268,7 @@
         <v>14803</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="4">
         <v>19.244448568500001</v>
@@ -3289,7 +3289,7 @@
         <v>14804</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" s="5">
         <v>9.0668438549000001</v>
@@ -3313,7 +3313,7 @@
         <v>14805</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" s="4">
         <v>14.5670817354</v>
@@ -3334,7 +3334,7 @@
         <v>14807</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" s="5">
         <v>7.6273767129300003</v>
@@ -3355,7 +3355,7 @@
         <v>14808</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" s="4">
         <v>23.495970756599998</v>
@@ -3379,7 +3379,7 @@
         <v>14809</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" s="5">
         <v>1.0131340677</v>
@@ -3400,7 +3400,7 @@
         <v>14811</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" s="4">
         <v>11.7427323643</v>
@@ -3424,7 +3424,7 @@
         <v>14812</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="5">
         <v>17.444872051800001</v>
@@ -3445,7 +3445,7 @@
         <v>14813</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" s="4">
         <v>0.36359544519999998</v>
@@ -3466,7 +3466,7 @@
         <v>14814</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="5">
         <v>0.94030569799800001</v>
@@ -3490,7 +3490,7 @@
         <v>14816</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" s="4">
         <v>14.4054645087</v>
@@ -3511,7 +3511,7 @@
         <v>14817</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" s="5">
         <v>1.41955828345</v>
@@ -3532,7 +3532,7 @@
         <v>14818</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4">
         <v>5.9353204921699998</v>
@@ -3553,7 +3553,7 @@
         <v>14819</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" s="5">
         <v>4.6126775715499999</v>
@@ -3574,7 +3574,7 @@
         <v>14820</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" s="4">
         <v>1.0094729767199999</v>
@@ -3595,7 +3595,7 @@
         <v>14821</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" s="5">
         <v>17.687171942900001</v>
@@ -3616,7 +3616,7 @@
         <v>14822</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" s="4">
         <v>3.8093139136700001</v>
@@ -3637,7 +3637,7 @@
         <v>14823</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="5">
         <v>0.218498778773</v>
@@ -3658,7 +3658,7 @@
         <v>14824</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="4">
         <v>19.095284534499999</v>
@@ -3682,7 +3682,7 @@
         <v>14827</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="5">
         <v>14.0884087969</v>
@@ -3706,7 +3706,7 @@
         <v>14828</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" s="4">
         <v>9.57651897575</v>
@@ -3727,7 +3727,7 @@
         <v>14829</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" s="5">
         <v>11.827630365799999</v>
@@ -3748,7 +3748,7 @@
         <v>14830</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" s="4">
         <v>7.7752166100800002</v>
@@ -3769,7 +3769,7 @@
         <v>14831</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" s="5">
         <v>11.552403347</v>
@@ -3793,7 +3793,7 @@
         <v>14832</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" s="4">
         <v>1.0865752742699999</v>
@@ -3817,7 +3817,7 @@
         <v>14833</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" s="5">
         <v>11.1704280483</v>
@@ -3841,7 +3841,7 @@
         <v>14834</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="4">
         <v>9.5870745087499998</v>
@@ -3865,7 +3865,7 @@
         <v>14835</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" s="5">
         <v>17.232487258799999</v>
@@ -3889,7 +3889,7 @@
         <v>14836</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="4">
         <v>4.1292566442399998</v>
@@ -3910,7 +3910,7 @@
         <v>14837</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" s="5">
         <v>17.309429660700001</v>
@@ -3931,7 +3931,7 @@
         <v>14838</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" s="4">
         <v>0.79255614578599998</v>
@@ -3952,7 +3952,7 @@
         <v>14839</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" s="5">
         <v>0.428701000311</v>
@@ -3973,7 +3973,7 @@
         <v>14840</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" s="4">
         <v>8.2895196655299994</v>
@@ -3997,7 +3997,7 @@
         <v>14841</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="5">
         <v>7.2304840442099998</v>
@@ -4021,7 +4021,7 @@
         <v>14842</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" s="4">
         <v>8.5199621808100007E-2</v>
@@ -4042,7 +4042,7 @@
         <v>14843</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="5">
         <v>7.6135396166499998</v>
@@ -4066,7 +4066,7 @@
         <v>14844</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" s="4">
         <v>11.4474639334</v>
@@ -4087,7 +4087,7 @@
         <v>14845</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" s="5">
         <v>5.5993692534299999</v>
@@ -4108,7 +4108,7 @@
         <v>14846</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" s="4">
         <v>3.2880364966300002</v>
@@ -4132,7 +4132,7 @@
         <v>14847</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" s="5">
         <v>3.7879923567599998</v>
@@ -4153,7 +4153,7 @@
         <v>14848</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" s="4">
         <v>8.4597667938800001</v>
@@ -4177,7 +4177,7 @@
         <v>14849</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" s="5">
         <v>4.4831354178599998</v>
@@ -4201,7 +4201,7 @@
         <v>14850</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" s="4">
         <v>13.972760689899999</v>
@@ -4222,7 +4222,7 @@
         <v>14852</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" s="5">
         <v>1.2374853296099999</v>
@@ -4243,7 +4243,7 @@
         <v>14853</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" s="4">
         <v>0.23898299158899999</v>
@@ -4264,7 +4264,7 @@
         <v>14854</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C171" s="5">
         <v>0.21522547997499999</v>
@@ -4285,7 +4285,7 @@
         <v>14855</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" s="4">
         <v>9.7816831929700001</v>
@@ -4309,7 +4309,7 @@
         <v>14856</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" s="5">
         <v>8.3420960449300008</v>
@@ -4333,7 +4333,7 @@
         <v>14857</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" s="4">
         <v>4.7769266363099998</v>
@@ -4357,7 +4357,7 @@
         <v>14858</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" s="5">
         <v>12.3817033413</v>
@@ -4381,7 +4381,7 @@
         <v>14860</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="4">
         <v>1.79259920835</v>
@@ -4405,7 +4405,7 @@
         <v>14862</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" s="5">
         <v>8.8753689914800002</v>
@@ -4429,7 +4429,7 @@
         <v>14863</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" s="4">
         <v>1.90487730964</v>
@@ -4450,7 +4450,7 @@
         <v>14864</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" s="5">
         <v>9.3339966545999999</v>
@@ -4471,7 +4471,7 @@
         <v>14865</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" s="4">
         <v>0.27821816029300001</v>
@@ -4492,7 +4492,7 @@
         <v>14866</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" s="5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>14867</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" s="4">
         <v>3.52619628357</v>
@@ -4534,7 +4534,7 @@
         <v>14868</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183" s="5">
         <v>0.44358776662600002</v>
@@ -4558,7 +4558,7 @@
         <v>14869</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" s="4">
         <v>0.85460208258399994</v>
@@ -4579,7 +4579,7 @@
         <v>14870</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" s="5">
         <v>3.56725817889</v>
@@ -4603,7 +4603,7 @@
         <v>14871</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" s="4">
         <v>13.1916275091</v>
@@ -4627,7 +4627,7 @@
         <v>14873</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" s="5">
         <v>1.0419472189900001</v>
@@ -4651,7 +4651,7 @@
         <v>14874</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>14876</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" s="5">
         <v>2.3504955460699999</v>
@@ -4693,7 +4693,7 @@
         <v>14877</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" s="4">
         <v>22.420008659699999</v>
@@ -4714,7 +4714,7 @@
         <v>14878</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" s="5">
         <v>8.6501860080899995</v>
@@ -4735,7 +4735,7 @@
         <v>14879</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192" s="4">
         <v>7.65889947297</v>
@@ -4756,7 +4756,7 @@
         <v>14880</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" s="5">
         <v>9.6647491804300003</v>
@@ -4777,7 +4777,7 @@
         <v>14881</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" s="4">
         <v>7.9394534755199997</v>
@@ -4798,7 +4798,7 @@
         <v>14882</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" s="5">
         <v>6.8570016779199996</v>
@@ -4819,7 +4819,7 @@
         <v>14883</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" s="4">
         <v>15.788334228</v>
@@ -4840,7 +4840,7 @@
         <v>14885</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C197" s="5">
         <v>4.4932796531900001</v>
@@ -4861,7 +4861,7 @@
         <v>14886</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" s="4">
         <v>2.3527598622900001</v>
@@ -4882,7 +4882,7 @@
         <v>14887</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" s="5">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>14888</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" s="4">
         <v>0.38495602782499999</v>
@@ -4924,7 +4924,7 @@
         <v>14889</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" s="5">
         <v>0.986671818654</v>
@@ -4945,7 +4945,7 @@
         <v>14890</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" s="4">
         <v>0.60941496044200005</v>
@@ -4966,7 +4966,7 @@
         <v>14891</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" s="5">
         <v>3.57357554799</v>
@@ -4987,7 +4987,7 @@
         <v>14892</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" s="4">
         <v>2.7257843246200002</v>
@@ -5008,7 +5008,7 @@
         <v>14893</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" s="5">
         <v>4.50537883304</v>
@@ -5029,7 +5029,7 @@
         <v>14894</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206" s="4">
         <v>8.2504246505900003</v>
@@ -5050,7 +5050,7 @@
         <v>14895</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" s="5">
         <v>6.04025470853</v>
@@ -5074,7 +5074,7 @@
         <v>14896</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C208" s="4">
         <v>3.2439940350300001</v>
@@ -5095,7 +5095,7 @@
         <v>14897</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" s="5">
         <v>2.6014136976</v>
@@ -5116,7 +5116,7 @@
         <v>14898</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" s="4">
         <v>9.1204939610999993</v>
@@ -5137,7 +5137,7 @@
         <v>14899</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" s="5">
         <v>12.567626779599999</v>
@@ -5161,7 +5161,7 @@
         <v>14900</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212" s="4">
         <v>5.5751027371399999</v>
@@ -5185,7 +5185,7 @@
         <v>14901</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" s="5">
         <v>3.6046680503099999</v>
@@ -5206,7 +5206,7 @@
         <v>14902</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" s="4">
         <v>0.52028289395799998</v>
@@ -5227,7 +5227,7 @@
         <v>14903</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" s="5">
         <v>1.0509298523999999</v>
@@ -5248,7 +5248,7 @@
         <v>14904</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" s="4">
         <v>0.60734193133199998</v>
@@ -5269,7 +5269,7 @@
         <v>14905</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" s="5">
         <v>0.55137555071400002</v>
@@ -5290,7 +5290,7 @@
         <v>14908</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218" s="4">
         <v>6.7723936150300004</v>
@@ -5311,7 +5311,7 @@
         <v>14909</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219" s="5">
         <v>6.0382646808900002</v>
@@ -5332,7 +5332,7 @@
         <v>14910</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" s="4">
         <v>13.2134592809</v>
@@ -5353,7 +5353,7 @@
         <v>14911</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" s="5">
         <v>8.9302279063000007</v>
@@ -5374,7 +5374,7 @@
         <v>14912</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" s="4">
         <v>15.2323864299</v>
@@ -5395,7 +5395,7 @@
         <v>14913</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" s="5">
         <v>13.921251502700001</v>
@@ -5419,7 +5419,7 @@
         <v>14914</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224" s="4">
         <v>12.975814747399999</v>
@@ -5443,7 +5443,7 @@
         <v>14915</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" s="5">
         <v>18.7320682583</v>
@@ -5464,7 +5464,7 @@
         <v>14916</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" s="4">
         <v>14.681387555600001</v>
@@ -5488,7 +5488,7 @@
         <v>14917</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227" s="5">
         <v>9.6950578952799997</v>
@@ -5512,7 +5512,7 @@
         <v>14918</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" s="4">
         <v>4.1472133088399996</v>
@@ -5533,7 +5533,7 @@
         <v>14919</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" s="5">
         <v>22.080618668100001</v>
@@ -5554,7 +5554,7 @@
         <v>14920</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" s="4">
         <v>14.412197686900001</v>
@@ -5575,7 +5575,7 @@
         <v>14921</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C231" s="5">
         <v>5.62986317869</v>
@@ -5596,7 +5596,7 @@
         <v>14922</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="4">
         <v>11.481722252200001</v>
@@ -5617,7 +5617,7 @@
         <v>14923</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="5">
         <v>2.65588788644</v>
@@ -5638,7 +5638,7 @@
         <v>14924</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" s="4">
         <v>1.5435192148800001</v>
@@ -5659,7 +5659,7 @@
         <v>14925</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" s="5">
         <v>0.140123918544</v>
@@ -5680,7 +5680,7 @@
         <v>14926</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" s="4">
         <v>0.185394858903</v>
@@ -5701,7 +5701,7 @@
         <v>14927</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" s="5">
         <v>2.5868994050599999E-2</v>
@@ -5722,7 +5722,7 @@
         <v>14928</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" s="4">
         <v>5.4171224108700002</v>
@@ -5743,7 +5743,7 @@
         <v>14929</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" s="5">
         <v>12.768082035999999</v>
@@ -5764,7 +5764,7 @@
         <v>14930</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C240" s="4">
         <v>1.7454535812400001</v>
@@ -5785,7 +5785,7 @@
         <v>14931</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="5">
         <v>29.074703750099999</v>
@@ -5809,7 +5809,7 @@
         <v>14932</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" s="4">
         <v>15.4281490093</v>
@@ -5830,7 +5830,7 @@
         <v>14933</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" s="5">
         <v>33.337909741499999</v>
@@ -5851,7 +5851,7 @@
         <v>14935</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244" s="4">
         <v>11.1712998173</v>
@@ -5875,7 +5875,7 @@
         <v>14936</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" s="5">
         <v>8.9102766279299992</v>
@@ -5896,7 +5896,7 @@
         <v>14937</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" s="4">
         <v>2.6543773701800002</v>
@@ -5920,7 +5920,7 @@
         <v>14938</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C247" s="5">
         <v>9.4674905804399998</v>
@@ -5944,7 +5944,7 @@
         <v>14939</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248" s="4">
         <v>1.42411218459</v>
@@ -5965,7 +5965,7 @@
         <v>14941</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" s="5">
         <v>20.456315142899999</v>
@@ -5986,7 +5986,7 @@
         <v>14942</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250" s="4">
         <v>10.278019630899999</v>
@@ -6007,7 +6007,7 @@
         <v>14943</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C251" s="5">
         <v>5.0456505058900003</v>
@@ -6028,7 +6028,7 @@
         <v>14944</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C252" s="4">
         <v>10.066071854700001</v>
@@ -6052,7 +6052,7 @@
         <v>14945</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" s="5">
         <v>1.1903321254100001</v>
@@ -6076,7 +6076,7 @@
         <v>14946</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C254" s="4">
         <v>0.95481181373000001</v>
@@ -6100,7 +6100,7 @@
         <v>14947</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C255" s="5">
         <v>2.7260985464299998</v>
@@ -6124,7 +6124,7 @@
         <v>14948</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C256" s="4">
         <v>1.6373150077800001</v>
@@ -6145,7 +6145,7 @@
         <v>14949</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C257" s="5">
         <v>0.66858746744800002</v>
@@ -6166,7 +6166,7 @@
         <v>14950</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C258" s="4">
         <v>0.49013686911100002</v>
@@ -6190,7 +6190,7 @@
         <v>14951</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" s="5">
         <v>0.21854590612999999</v>
@@ -6211,7 +6211,7 @@
         <v>14952</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" s="4">
         <v>1.4711558196800001</v>
@@ -6232,7 +6232,7 @@
         <v>14953</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C261" s="5">
         <v>7.4222484021700001</v>
@@ -6256,7 +6256,7 @@
         <v>14954</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C262" s="4">
         <v>7.4980345439800002</v>
@@ -6277,7 +6277,7 @@
         <v>14955</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C263" s="5">
         <v>14.4584646074</v>
@@ -6301,7 +6301,7 @@
         <v>14956</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C264" s="4">
         <v>13.4282544398</v>
@@ -6322,7 +6322,7 @@
         <v>14957</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C265" s="5">
         <v>4.3527764487300002</v>
@@ -6346,7 +6346,7 @@
         <v>14958</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" s="4">
         <v>7.1737057057399998</v>
@@ -6367,7 +6367,7 @@
         <v>14959</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267" s="5">
         <v>8.5574660943699996</v>
@@ -6388,7 +6388,7 @@
         <v>14960</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C268" s="4">
         <v>9.7931398607899993</v>
@@ -6409,7 +6409,7 @@
         <v>14961</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C269" s="5">
         <v>5.3893824424899996</v>
@@ -6430,7 +6430,7 @@
         <v>14962</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270" s="4">
         <v>10.126846002000001</v>
@@ -6451,7 +6451,7 @@
         <v>14963</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" s="5">
         <v>3.1122473002</v>
@@ -6472,7 +6472,7 @@
         <v>14964</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272" s="4">
         <v>1.8304479463300001</v>
@@ -6493,7 +6493,7 @@
         <v>14965</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273" s="5">
         <v>24.191531699199999</v>
@@ -6514,7 +6514,7 @@
         <v>14966</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274" s="4">
         <v>6.8751047702500001</v>
@@ -6535,7 +6535,7 @@
         <v>14967</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C275" s="5">
         <v>0.45104876446800002</v>
@@ -6556,7 +6556,7 @@
         <v>14968</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276" s="4">
         <v>1.85508224301</v>
@@ -6577,7 +6577,7 @@
         <v>14969</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" s="5">
         <v>5.0830388634199997</v>
@@ -6598,7 +6598,7 @@
         <v>14970</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278" s="4">
         <v>1.07220352346</v>
@@ -6619,7 +6619,7 @@
         <v>14971</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C279" s="5">
         <v>0.37633493271399998</v>
@@ -6640,7 +6640,7 @@
         <v>14972</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280" s="4">
         <v>0.60985119254300002</v>
@@ -6661,7 +6661,7 @@
         <v>14973</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281" s="5">
         <v>0.62119703122799996</v>
@@ -6682,7 +6682,7 @@
         <v>14974</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C282" s="4">
         <v>2.1500801776</v>
@@ -6703,7 +6703,7 @@
         <v>14975</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C283" s="5">
         <v>1.3669821729</v>
@@ -6724,7 +6724,7 @@
         <v>14976</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284" s="4">
         <v>1.21686581975</v>
@@ -6745,7 +6745,7 @@
         <v>14977</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285" s="5">
         <v>0.36307402338400002</v>
@@ -6766,7 +6766,7 @@
         <v>14978</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C286" s="4">
         <v>0.62466805351700005</v>
@@ -6787,7 +6787,7 @@
         <v>14979</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C287" s="5">
         <v>1.17125281851</v>
@@ -6808,7 +6808,7 @@
         <v>14980</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C288" s="4">
         <v>3.2586853842000001</v>
@@ -6829,7 +6829,7 @@
         <v>14981</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289" s="5">
         <v>2.9054642389000001</v>
@@ -6850,7 +6850,7 @@
         <v>14982</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290" s="4">
         <v>3.9833409788299998</v>
@@ -6871,7 +6871,7 @@
         <v>14983</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C291" s="5">
         <v>1.5207663677000001</v>
@@ -6892,7 +6892,7 @@
         <v>14984</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" s="4">
         <v>0.76544827495800005</v>
@@ -6913,7 +6913,7 @@
         <v>14985</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C293" s="5">
         <v>3.8620340526999999</v>
@@ -6934,7 +6934,7 @@
         <v>14986</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294" s="4">
         <v>3.2792015920200002</v>
@@ -6955,7 +6955,7 @@
         <v>14987</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C295" s="5">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>14988</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C296" s="4">
         <v>6.9547537213100004</v>
@@ -7000,7 +7000,7 @@
         <v>14989</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C297" s="5">
         <v>9.4018684492899993</v>
@@ -7021,7 +7021,7 @@
         <v>14990</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298" s="4">
         <v>0.795067123323</v>
@@ -7042,7 +7042,7 @@
         <v>14991</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C299" s="5">
         <v>7.5616998749000004</v>
@@ -7063,7 +7063,7 @@
         <v>14992</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C300" s="4">
         <v>2.4179862914600001</v>
@@ -7084,7 +7084,7 @@
         <v>14993</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" s="5">
         <v>10.2929581421</v>
@@ -7105,7 +7105,7 @@
         <v>14994</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C302" s="4">
         <v>0.81374332009399997</v>
@@ -7129,7 +7129,7 @@
         <v>14995</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303" s="5">
         <v>6.0590929657299997</v>
@@ -7150,7 +7150,7 @@
         <v>14996</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304" s="4">
         <v>0.94116075527700005</v>
@@ -7171,7 +7171,7 @@
         <v>14997</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C305" s="5">
         <v>3.56848481848</v>
@@ -7192,7 +7192,7 @@
         <v>14998</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C306" s="4">
         <v>0.97227380810599995</v>
@@ -7213,7 +7213,7 @@
         <v>14999</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307" s="5">
         <v>0.27541325623200003</v>
@@ -7234,7 +7234,7 @@
         <v>15000</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C308" s="4">
         <v>0.82623991632100002</v>
@@ -7255,7 +7255,7 @@
         <v>15001</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C309" s="5">
         <v>3.0250665752799999</v>
@@ -7276,7 +7276,7 @@
         <v>15002</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C310" s="4">
         <v>3.1410438004699999</v>
@@ -7297,7 +7297,7 @@
         <v>15013</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C311" s="5">
         <v>2.2706737385500002</v>
@@ -7318,7 +7318,7 @@
         <v>15014</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C312" s="4">
         <v>2.3023759371399999</v>
@@ -7339,7 +7339,7 @@
         <v>15015</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C313" s="5">
         <v>1.9329497208699999</v>
@@ -7360,7 +7360,7 @@
         <v>15016</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C314" s="4">
         <v>0.334400365654</v>
@@ -7381,7 +7381,7 @@
         <v>15017</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C315" s="5">
         <v>1.85949767987</v>
@@ -7402,7 +7402,7 @@
         <v>15018</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" s="4">
         <v>0.98475120452800002</v>
@@ -7423,7 +7423,7 @@
         <v>15019</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C317" s="5">
         <v>2.5862870237800002</v>
@@ -7444,7 +7444,7 @@
         <v>15020</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C318" s="4">
         <v>5.2071517310999997</v>
@@ -7465,7 +7465,7 @@
         <v>15021</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C319" s="5">
         <v>2.7563866084300002</v>
@@ -7486,7 +7486,7 @@
         <v>15022</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C320" s="4">
         <v>6.0000502864399996</v>
@@ -7507,7 +7507,7 @@
         <v>15023</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C321" s="5">
         <v>0.53695683748599998</v>
@@ -7528,7 +7528,7 @@
         <v>15024</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C322" s="4">
         <v>8.2915071296900003</v>
@@ -7549,7 +7549,7 @@
         <v>15025</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C323" s="5">
         <v>11.2033249869</v>
@@ -7570,7 +7570,7 @@
         <v>15026</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C324" s="4">
         <v>0.47495336327799997</v>
@@ -7591,7 +7591,7 @@
         <v>15027</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325" s="5">
         <v>0.160492712525</v>
@@ -7612,7 +7612,7 @@
         <v>15029</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C326" s="4">
         <v>1.7821194440699999</v>
@@ -7633,7 +7633,7 @@
         <v>15030</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C327" s="5">
         <v>3.1656964568400001</v>
@@ -7654,7 +7654,7 @@
         <v>15031</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C328" s="4">
         <v>3.9413265024299999</v>
@@ -7678,7 +7678,7 @@
         <v>15032</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C329" s="5">
         <v>4.3095678594900004</v>
@@ -7699,7 +7699,7 @@
         <v>15033</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C330" s="4">
         <v>9.0962822855900001</v>
@@ -7723,7 +7723,7 @@
         <v>15034</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331" s="5">
         <v>17.4158585546</v>
@@ -7747,7 +7747,7 @@
         <v>15035</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C332" s="4">
         <v>6.5238705901699996</v>
@@ -7768,7 +7768,7 @@
         <v>15036</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C333" s="5">
         <v>5.9269767284799997</v>
@@ -7789,7 +7789,7 @@
         <v>15037</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C334" s="4">
         <v>4.0808094737999996</v>
@@ -7810,7 +7810,7 @@
         <v>15038</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C335" s="5">
         <v>21.294856124700001</v>
@@ -7831,7 +7831,7 @@
         <v>15039</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C336" s="4">
         <v>0.30570040480999999</v>
@@ -7852,7 +7852,7 @@
         <v>15041</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C337" s="5">
         <v>0.56667790700999998</v>
@@ -7873,7 +7873,7 @@
         <v>15042</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C338" s="4">
         <v>3.9567375598900001</v>
@@ -7894,7 +7894,7 @@
         <v>15044</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C339" s="5">
         <v>4.3695710738300004</v>
@@ -7915,7 +7915,7 @@
         <v>15045</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C340" s="4">
         <v>21.629993821399999</v>
@@ -7939,7 +7939,7 @@
         <v>15046</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C341" s="5">
         <v>0.34419580513600001</v>
@@ -7960,7 +7960,7 @@
         <v>15047</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C342" s="4">
         <v>0.103032293047</v>
@@ -7981,7 +7981,7 @@
         <v>15048</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C343" s="5">
         <v>1.44490094348</v>
@@ -8002,7 +8002,7 @@
         <v>15049</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C344" s="4">
         <v>8.5513699910999996</v>
@@ -8026,7 +8026,7 @@
         <v>15050</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C345" s="5">
         <v>0.59384673723100001</v>
@@ -8047,7 +8047,7 @@
         <v>15051</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C346" s="4">
         <v>5.4741141006499996</v>
@@ -8071,7 +8071,7 @@
         <v>15052</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C347" s="5">
         <v>10.110984347300001</v>
@@ -8095,7 +8095,7 @@
         <v>15053</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C348" s="4">
         <v>0.50306763880700001</v>
@@ -8116,7 +8116,7 @@
         <v>15054</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C349" s="5">
         <v>5.76571338863</v>
@@ -8140,7 +8140,7 @@
         <v>15055</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C350" s="4">
         <v>2.94912922984</v>
@@ -8161,7 +8161,7 @@
         <v>15056</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C351" s="5">
         <v>0.42068209141099999</v>
@@ -8182,7 +8182,7 @@
         <v>15057</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C352" s="4">
         <v>4.1862171631200003</v>
@@ -8203,7 +8203,7 @@
         <v>15058</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C353" s="5">
         <v>0.77759810127499995</v>
@@ -8224,7 +8224,7 @@
         <v>15059</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C354" s="4">
         <v>3.83055429795</v>
@@ -8248,7 +8248,7 @@
         <v>15060</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C355" s="5">
         <v>5.4166775630400004</v>
@@ -8272,7 +8272,7 @@
         <v>15061</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C356" s="4">
         <v>2.0080586657900001</v>
@@ -8293,7 +8293,7 @@
         <v>15062</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C357" s="5">
         <v>8.6861245142500003</v>
@@ -8314,7 +8314,7 @@
         <v>15069</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C358" s="4">
         <v>2.3416306309200001</v>
@@ -8335,7 +8335,7 @@
         <v>15070</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C359" s="5">
         <v>0.28305589288799998</v>
@@ -8356,7 +8356,7 @@
         <v>15074</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C360" s="4">
         <v>3.6560362205599999</v>
@@ -8377,7 +8377,7 @@
         <v>15075</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C361" s="5">
         <v>5.5934047633499997</v>
@@ -8398,7 +8398,7 @@
         <v>15077</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" s="4">
         <v>4.0514626399699996</v>
@@ -8422,7 +8422,7 @@
         <v>15078</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C363" s="5">
         <v>0.73120734286699995</v>
@@ -8443,7 +8443,7 @@
         <v>15081</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C364" s="4">
         <v>2.8028050111999998</v>
@@ -8464,7 +8464,7 @@
         <v>15082</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C365" s="5">
         <v>1.4411182755600001</v>
@@ -8485,7 +8485,7 @@
         <v>15083</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C366" s="4">
         <v>0.57795199131200004</v>
@@ -8506,7 +8506,7 @@
         <v>15084</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C367" s="5">
         <v>0.20102689408400001</v>
@@ -8527,7 +8527,7 @@
         <v>15085</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C368" s="4">
         <v>9.0577878975500001E-2</v>
@@ -8548,7 +8548,7 @@
         <v>15086</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C369" s="5">
         <v>1.3586740896399999E-2</v>
@@ -8569,7 +8569,7 @@
         <v>15087</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C370" s="4">
         <v>1.21606158164</v>
@@ -8590,7 +8590,7 @@
         <v>15088</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C371" s="5">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>15089</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C372" s="4">
         <v>4.4935657242899998</v>
@@ -8632,7 +8632,7 @@
         <v>15090</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C373" s="5">
         <v>13.521420430899999</v>
@@ -8653,7 +8653,7 @@
         <v>15091</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C374" s="4">
         <v>21.615616606</v>
@@ -8677,7 +8677,7 @@
         <v>15092</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C375" s="5">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>15093</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C376" s="4">
         <v>0.680398482631</v>
@@ -8719,7 +8719,7 @@
         <v>15094</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C377" s="5">
         <v>2.12007032069</v>
@@ -8740,7 +8740,7 @@
         <v>15095</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C378" s="4">
         <v>1.83823544781</v>
@@ -8761,7 +8761,7 @@
         <v>15096</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C379" s="5">
         <v>12.4783757924</v>
@@ -8782,7 +8782,7 @@
         <v>15097</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C380" s="4">
         <v>6.7865869751899996</v>
@@ -8803,7 +8803,7 @@
         <v>15098</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C381" s="5">
         <v>2.0274000996599999</v>
@@ -8824,7 +8824,7 @@
         <v>15099</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C382" s="4">
         <v>6.2788886039099996</v>
@@ -8845,7 +8845,7 @@
         <v>15100</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C383" s="5">
         <v>7.82844700321</v>
@@ -8866,7 +8866,7 @@
         <v>15101</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C384" s="4">
         <v>1.2284621145400001</v>
@@ -8887,7 +8887,7 @@
         <v>15102</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C385" s="5">
         <v>1.2931435839000001</v>
@@ -8908,7 +8908,7 @@
         <v>15103</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C386" s="4">
         <v>1.28154583257</v>
@@ -8929,7 +8929,7 @@
         <v>15104</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C387" s="5">
         <v>5.7361049950599998</v>
@@ -8950,7 +8950,7 @@
         <v>15105</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C388" s="4">
         <v>1.56182342977</v>
@@ -8971,7 +8971,7 @@
         <v>15106</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C389" s="5">
         <v>1.2824734864</v>
@@ -8992,7 +8992,7 @@
         <v>15107</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C390" s="4">
         <v>3.80940216212</v>
@@ -9013,7 +9013,7 @@
         <v>15108</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C391" s="5">
         <v>0.66119747970800002</v>
@@ -9034,7 +9034,7 @@
         <v>15109</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C392" s="4">
         <v>3.4022902557400001</v>
@@ -9055,7 +9055,7 @@
         <v>15110</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C393" s="5">
         <v>10.978445220699999</v>
@@ -9076,7 +9076,7 @@
         <v>15111</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C394" s="4">
         <v>4.48016717444</v>
@@ -9097,7 +9097,7 @@
         <v>15112</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C395" s="5">
         <v>3.7752658722999999</v>
@@ -9118,7 +9118,7 @@
         <v>15113</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C396" s="4">
         <v>2.1736380473799999</v>
@@ -9139,7 +9139,7 @@
         <v>15114</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C397" s="5">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>15115</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C398" s="4">
         <v>10.0681495543</v>
@@ -9184,7 +9184,7 @@
         <v>15116</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C399" s="5">
         <v>4.6271955278199997</v>
@@ -9205,7 +9205,7 @@
         <v>15117</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C400" s="4">
         <v>3.0221877962299999</v>
@@ -9226,7 +9226,7 @@
         <v>15118</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C401" s="5">
         <v>13.752580072000001</v>
@@ -9247,7 +9247,7 @@
         <v>15119</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C402" s="4">
         <v>1.55602460307</v>
@@ -9268,7 +9268,7 @@
         <v>15120</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C403" s="5">
         <v>0.29574143460399999</v>
@@ -9289,7 +9289,7 @@
         <v>15121</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C404" s="4">
         <v>3.45396665684</v>
@@ -9310,7 +9310,7 @@
         <v>15122</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C405" s="5">
         <v>3.23733305369</v>
@@ -9331,7 +9331,7 @@
         <v>15123</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C406" s="4">
         <v>0.94750681338800002</v>
@@ -9352,7 +9352,7 @@
         <v>15124</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C407" s="5">
         <v>2.5703935423000002</v>
@@ -9373,7 +9373,7 @@
         <v>15125</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C408" s="4">
         <v>1.6118246627999999</v>
@@ -9394,7 +9394,7 @@
         <v>15126</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C409" s="5">
         <v>0.106312168401</v>
@@ -9415,7 +9415,7 @@
         <v>15127</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C410" s="4">
         <v>0.57215318765800005</v>
@@ -9436,7 +9436,7 @@
         <v>15128</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C411" s="5">
         <v>1.68168691525</v>
@@ -9460,7 +9460,7 @@
         <v>15129</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C412" s="4">
         <v>1.9890312642100001</v>
@@ -9481,7 +9481,7 @@
         <v>15130</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C413" s="5">
         <v>0.33053454455699999</v>
@@ -9502,7 +9502,7 @@
         <v>15131</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C414" s="4">
         <v>0.52189650528499998</v>
@@ -9523,7 +9523,7 @@
         <v>15132</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C415" s="5">
         <v>0.939413680709</v>
@@ -9544,7 +9544,7 @@
         <v>15133</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C416" s="4">
         <v>8.6044906088899999</v>
@@ -9565,7 +9565,7 @@
         <v>15135</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C417" s="5">
         <v>5.1724307249799999</v>
@@ -9586,7 +9586,7 @@
         <v>15136</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C418" s="4">
         <v>13.460490008100001</v>
@@ -9607,7 +9607,7 @@
         <v>15137</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C419" s="5">
         <v>6.61197461118</v>
@@ -9628,7 +9628,7 @@
         <v>15147</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C420" s="4">
         <v>0.85299585253200005</v>
@@ -9649,7 +9649,7 @@
         <v>15148</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C421" s="5">
         <v>0.362594449983</v>
@@ -9670,7 +9670,7 @@
         <v>15149</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C422" s="4">
         <v>0.52189650528499998</v>
@@ -9691,7 +9691,7 @@
         <v>15150</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C423" s="5">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>15152</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C424" s="4">
         <v>0.70745966235900004</v>
@@ -9733,7 +9733,7 @@
         <v>15153</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C425" s="5">
         <v>1.97755562586</v>
@@ -9754,7 +9754,7 @@
         <v>15154</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C426" s="4">
         <v>6.1952954798000004</v>
@@ -9775,7 +9775,7 @@
         <v>15155</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C427" s="5">
         <v>1.2876309880100001</v>
@@ -9796,7 +9796,7 @@
         <v>15156</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C428" s="4">
         <v>12.1290451115</v>
@@ -9817,7 +9817,7 @@
         <v>15157</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C429" s="5">
         <v>6.7618882817000001</v>
@@ -9838,7 +9838,7 @@
         <v>15158</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C430" s="4">
         <v>3.7265840740699998</v>
@@ -9862,7 +9862,7 @@
         <v>15159</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C431" s="5">
         <v>6.4405890662400003</v>
@@ -9883,7 +9883,7 @@
         <v>15160</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C432" s="4">
         <v>0.26294964858499997</v>
@@ -9904,7 +9904,7 @@
         <v>15161</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C433" s="5">
         <v>0.59761294072799998</v>
@@ -9925,7 +9925,7 @@
         <v>15175</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C434" s="4">
         <v>0.54980389899299997</v>
@@ -9946,7 +9946,7 @@
         <v>15176</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C435" s="5">
         <v>0.366400484636</v>
@@ -9967,7 +9967,7 @@
         <v>15177</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C436" s="4">
         <v>10.337135524400001</v>
@@ -9988,7 +9988,7 @@
         <v>15178</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C437" s="5">
         <v>0.731059732159</v>
@@ -10009,7 +10009,7 @@
         <v>15179</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C438" s="4">
         <v>2.0883857245500002</v>
@@ -10030,7 +10030,7 @@
         <v>15180</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C439" s="5">
         <v>3.4082855573500002</v>
@@ -10051,7 +10051,7 @@
         <v>15181</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C440" s="4">
         <v>9.5636591923399994</v>
@@ -10075,7 +10075,7 @@
         <v>15182</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C441" s="5">
         <v>0.920686031854</v>
@@ -10096,7 +10096,7 @@
         <v>15183</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C442" s="4">
         <v>0.44412496979900001</v>
@@ -10117,7 +10117,7 @@
         <v>15184</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C443" s="5">
         <v>0.28303955914700002</v>
@@ -10138,7 +10138,7 @@
         <v>15185</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C444" s="4">
         <v>0.32616728646799997</v>
@@ -10159,7 +10159,7 @@
         <v>15186</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C445" s="5">
         <v>0.14770898540399999</v>
@@ -10180,7 +10180,7 @@
         <v>15187</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C446" s="4">
         <v>1.03789370403</v>
@@ -10201,7 +10201,7 @@
         <v>15188</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C447" s="5">
         <v>0.483048540764</v>
@@ -10222,7 +10222,7 @@
         <v>15214</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C448" s="4">
         <v>2.8428386946000002</v>
@@ -10243,7 +10243,7 @@
         <v>15216</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C449" s="5">
         <v>0.68065917224100003</v>
@@ -10264,7 +10264,7 @@
         <v>15217</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C450" s="4">
         <v>7.1187292772499999</v>
@@ -10285,7 +10285,7 @@
         <v>15220</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C451" s="5">
         <v>2.6102007061000001</v>
@@ -10306,7 +10306,7 @@
         <v>15221</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C452" s="4">
         <v>3.9339119977100001</v>
@@ -10327,7 +10327,7 @@
         <v>15222</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C453" s="5">
         <v>4.7434931544600003</v>
@@ -10348,7 +10348,7 @@
         <v>15223</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C454" s="4">
         <v>14.260722596000001</v>
@@ -10372,7 +10372,7 @@
         <v>15224</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C455" s="5">
         <v>10.008095881499999</v>
@@ -10393,7 +10393,7 @@
         <v>15225</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C456" s="4">
         <v>26.1020068877</v>
@@ -10414,7 +10414,7 @@
         <v>15226</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C457" s="5">
         <v>2.8265540908700002</v>
@@ -10435,7 +10435,7 @@
         <v>15227</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C458" s="4">
         <v>22.675245933700001</v>
@@ -10459,7 +10459,7 @@
         <v>15232</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C459" s="5">
         <v>11.9971522778</v>
@@ -10480,7 +10480,7 @@
         <v>15233</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C460" s="4">
         <v>9.2124729070400004</v>
@@ -10504,7 +10504,7 @@
         <v>15234</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C461" s="5">
         <v>7.3885896628400003</v>
@@ -10525,7 +10525,7 @@
         <v>15235</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C462" s="4">
         <v>18.925118286699998</v>
@@ -10546,7 +10546,7 @@
         <v>15236</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C463" s="5">
         <v>11.485348564500001</v>
@@ -10567,7 +10567,7 @@
         <v>15237</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C464" s="4">
         <v>1.0538509060200001</v>
@@ -10588,7 +10588,7 @@
         <v>15238</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C465" s="5">
         <v>13.1207954817</v>
@@ -10612,7 +10612,7 @@
         <v>15239</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C466" s="4">
         <v>16.470785566699998</v>
@@ -10633,7 +10633,7 @@
         <v>15240</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C467" s="5">
         <v>7.0233473830399999</v>
@@ -10654,7 +10654,7 @@
         <v>15241</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C468" s="4">
         <v>3.6524195047000001</v>
@@ -10675,7 +10675,7 @@
         <v>15242</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C469" s="5">
         <v>0.32104061825800001</v>
@@ -10696,7 +10696,7 @@
         <v>15243</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C470" s="4">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>15244</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C471" s="5">
         <v>0.66301885654299997</v>
@@ -10738,7 +10738,7 @@
         <v>15245</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C472" s="4">
         <v>0.465446722975</v>
@@ -10759,7 +10759,7 @@
         <v>15246</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C473" s="5">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>15247</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C474" s="4">
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>15248</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C475" s="5">
         <v>0.190324494692</v>
@@ -10822,7 +10822,7 @@
         <v>15249</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C476" s="4">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>15250</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C477" s="5">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>15251</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C478" s="4">
         <v>0.233698952382</v>
@@ -10885,7 +10885,7 @@
         <v>15252</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C479" s="5">
         <v>36.690829547200003</v>
@@ -10909,7 +10909,7 @@
         <v>15253</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C480" s="4">
         <v>29.588491402700001</v>
@@ -10930,7 +10930,7 @@
         <v>15254</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C481" s="5">
         <v>21.302211882800002</v>
@@ -10954,7 +10954,7 @@
         <v>15255</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C482" s="4">
         <v>11.637462044099999</v>
@@ -10975,7 +10975,7 @@
         <v>15256</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C483" s="5">
         <v>14.5181102738</v>
@@ -10999,7 +10999,7 @@
         <v>15257</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C484" s="4">
         <v>5.4086304869199999</v>
@@ -11023,7 +11023,7 @@
         <v>15258</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C485" s="5">
         <v>3.2901876396600001</v>
@@ -11047,7 +11047,7 @@
         <v>15259</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C486" s="4">
         <v>7.0271008511000002</v>
@@ -11068,7 +11068,7 @@
         <v>15261</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C487" s="5">
         <v>5.7177276191299997</v>
@@ -11089,7 +11089,7 @@
         <v>15262</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C488" s="4">
         <v>8.4690302501399994</v>
@@ -11113,7 +11113,7 @@
         <v>15263</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C489" s="5">
         <v>8.2584368628899991</v>
@@ -11134,7 +11134,7 @@
         <v>15264</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C490" s="4">
         <v>9.6932219271199997</v>
@@ -11158,7 +11158,7 @@
         <v>15265</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C491" s="5">
         <v>5.5977000881199999</v>
@@ -11179,7 +11179,7 @@
         <v>15266</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C492" s="4">
         <v>0.87860530796299996</v>
@@ -11200,7 +11200,7 @@
         <v>15267</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C493" s="5">
         <v>8.3600386280500008</v>
@@ -11224,7 +11224,7 @@
         <v>15268</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C494" s="4">
         <v>7.2125415854400003</v>
@@ -11248,7 +11248,7 @@
         <v>15269</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C495" s="5">
         <v>3.05442886299</v>
@@ -11269,7 +11269,7 @@
         <v>15270</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C496" s="4">
         <v>1.0661292361200001</v>
@@ -11290,7 +11290,7 @@
         <v>15271</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C497" s="5">
         <v>0.48685616276100002</v>
@@ -11311,7 +11311,7 @@
         <v>15272</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C498" s="4">
         <v>0.83454355808699998</v>
@@ -11332,7 +11332,7 @@
         <v>15273</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C499" s="5">
         <v>0.50685844753700005</v>
@@ -11353,7 +11353,7 @@
         <v>15274</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C500" s="4">
         <v>3.84954471903E-2</v>
@@ -11374,7 +11374,7 @@
         <v>15275</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C501" s="5">
         <v>0.15184358656899999</v>
@@ -11395,7 +11395,7 @@
         <v>15282</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C502" s="4">
         <v>9.0578375865100007</v>
@@ -11416,7 +11416,7 @@
         <v>15283</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C503" s="5">
         <v>6.0406000612800002</v>
@@ -11440,7 +11440,7 @@
         <v>15285</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C504" s="4">
         <v>8.3453779082799997</v>
@@ -11461,7 +11461,7 @@
         <v>15287</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C505" s="5">
         <v>19.401427432799998</v>
@@ -11482,7 +11482,7 @@
         <v>15288</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C506" s="4">
         <v>20.583767680600001</v>
@@ -11503,7 +11503,7 @@
         <v>15290</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C507" s="5">
         <v>1.6392705519099999</v>
@@ -11524,7 +11524,7 @@
         <v>15291</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C508" s="4">
         <v>0.68309245001899999</v>
@@ -11545,7 +11545,7 @@
         <v>15293</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C509" s="5">
         <v>3.38469558757</v>
@@ -11566,7 +11566,7 @@
         <v>15385</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C510" s="4">
         <v>4.0959388690700003</v>
@@ -11587,7 +11587,7 @@
         <v>15386</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C511" s="5">
         <v>7.5015077642200003</v>
@@ -11608,7 +11608,7 @@
         <v>15390</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C512" s="4">
         <v>21.182841864</v>
@@ -11629,7 +11629,7 @@
         <v>15391</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C513" s="5">
         <v>37.004529265000002</v>
@@ -11653,7 +11653,7 @@
         <v>15392</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C514" s="4">
         <v>21.372752843099999</v>
@@ -11677,7 +11677,7 @@
         <v>15393</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C515" s="5">
         <v>31.700967111299999</v>
@@ -11698,7 +11698,7 @@
         <v>15394</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C516" s="4">
         <v>34.607682179599998</v>
@@ -11722,7 +11722,7 @@
         <v>15395</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C517" s="5">
         <v>34.202093926400003</v>
@@ -11746,7 +11746,7 @@
         <v>15396</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C518" s="4">
         <v>27.637269003099998</v>
@@ -11770,7 +11770,7 @@
         <v>15397</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C519" s="5">
         <v>4.42450977838</v>
@@ -11791,7 +11791,7 @@
         <v>15398</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C520" s="4">
         <v>5.2503020524900004</v>
@@ -11812,7 +11812,7 @@
         <v>15399</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C521" s="5">
         <v>2.5034554087599998</v>
@@ -11833,7 +11833,7 @@
         <v>15400</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C522" s="4">
         <v>4.12159491294</v>
@@ -11857,7 +11857,7 @@
         <v>15401</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C523" s="5">
         <v>3.3593819036200001</v>
@@ -11878,7 +11878,7 @@
         <v>15402</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C524" s="4">
         <v>2.75649713453</v>
@@ -11899,7 +11899,7 @@
         <v>15403</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C525" s="5">
         <v>1.3125755536000001</v>
@@ -11920,7 +11920,7 @@
         <v>15404</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C526" s="4">
         <v>11.4120108127</v>
@@ -11941,7 +11941,7 @@
         <v>15406</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C527" s="5">
         <v>2.00552881595</v>
@@ -11965,7 +11965,7 @@
         <v>15407</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C528" s="4">
         <v>2.9001726467900002</v>
@@ -11986,7 +11986,7 @@
         <v>15408</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C529" s="5">
         <v>14.711331808700001</v>
@@ -12007,7 +12007,7 @@
         <v>15409</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C530" s="4">
         <v>1.8732453278900001</v>
@@ -12028,7 +12028,7 @@
         <v>15410</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C531" s="5">
         <v>15.983370478099999</v>
@@ -12049,7 +12049,7 @@
         <v>15411</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C532" s="4">
         <v>3.8986098335700001</v>
@@ -12070,7 +12070,7 @@
         <v>15412</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C533" s="5">
         <v>12.167174128599999</v>
@@ -12091,7 +12091,7 @@
         <v>15413</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C534" s="4">
         <v>6.6997855299399998</v>
@@ -12112,7 +12112,7 @@
         <v>15414</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C535" s="5">
         <v>9.7313129251999992</v>
@@ -12133,7 +12133,7 @@
         <v>15415</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C536" s="4">
         <v>0.74107479150199995</v>
@@ -12154,7 +12154,7 @@
         <v>15416</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C537" s="5">
         <v>4.9650624176099996</v>
@@ -12175,7 +12175,7 @@
         <v>15417</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C538" s="4">
         <v>0.72371733905900004</v>
@@ -12196,7 +12196,7 @@
         <v>15418</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C539" s="5">
         <v>1.7362876327500001</v>
@@ -12217,7 +12217,7 @@
         <v>15419</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C540" s="4">
         <v>2.02536499141</v>
@@ -12238,7 +12238,7 @@
         <v>15420</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C541" s="5">
         <v>0.192477968922</v>
@@ -12259,7 +12259,7 @@
         <v>15421</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C542" s="4">
         <v>1.5168507708900001</v>
@@ -12280,7 +12280,7 @@
         <v>15422</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C543" s="5">
         <v>1.17283253614</v>
@@ -12304,7 +12304,7 @@
         <v>15423</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C544" s="4">
         <v>4.7991173329599999</v>
@@ -12328,7 +12328,7 @@
         <v>15424</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C545" s="5">
         <v>3.89209063221</v>
@@ -12349,7 +12349,7 @@
         <v>15425</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C546" s="4">
         <v>6.93255222248</v>
@@ -12370,7 +12370,7 @@
         <v>15426</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C547" s="5">
         <v>0.59978627769799997</v>
@@ -12391,7 +12391,7 @@
         <v>15427</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C548" s="4">
         <v>0.46287835384699999</v>
@@ -12412,7 +12412,7 @@
         <v>15428</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C549" s="5">
         <v>1.9628461501600001</v>
@@ -12433,7 +12433,7 @@
         <v>15429</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C550" s="4">
         <v>2.5208405113099999</v>
@@ -12454,7 +12454,7 @@
         <v>15430</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C551" s="5">
         <v>1.39072607932</v>
@@ -12475,7 +12475,7 @@
         <v>15431</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C552" s="4">
         <v>3.1445596791899999</v>
@@ -12499,7 +12499,7 @@
         <v>15433</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C553" s="5">
         <v>3.0944867859</v>
@@ -12523,7 +12523,7 @@
         <v>15434</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C554" s="4">
         <v>10.708026589099999</v>
@@ -12547,7 +12547,7 @@
         <v>15435</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C555" s="5">
         <v>7.5885034498100001</v>
@@ -12568,7 +12568,7 @@
         <v>15436</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C556" s="4">
         <v>11.6068301457</v>
@@ -12589,7 +12589,7 @@
         <v>15437</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C557" s="5">
         <v>7.8964495890500004</v>
@@ -12610,7 +12610,7 @@
         <v>15438</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C558" s="4">
         <v>15.740323544800001</v>
@@ -12631,7 +12631,7 @@
         <v>15439</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C559" s="5">
         <v>33.581193369899999</v>
@@ -12652,7 +12652,7 @@
         <v>15440</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C560" s="4">
         <v>20.4120968627</v>
@@ -12673,7 +12673,7 @@
         <v>15441</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C561" s="5">
         <v>4.2086024592599998</v>
@@ -12694,7 +12694,7 @@
         <v>15442</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C562" s="4">
         <v>9.26343172268</v>
@@ -12715,7 +12715,7 @@
         <v>15443</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C563" s="5">
         <v>5.1775073576499997</v>
@@ -12736,7 +12736,7 @@
         <v>15444</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C564" s="4">
         <v>3.5551547180399998</v>
@@ -12757,7 +12757,7 @@
         <v>15445</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C565" s="5">
         <v>6.1864702722200002</v>
@@ -12778,7 +12778,7 @@
         <v>15446</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C566" s="4">
         <v>2.6888989057999999</v>
@@ -12802,7 +12802,7 @@
         <v>15447</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C567" s="5">
         <v>2.8992040503199998</v>
@@ -12823,7 +12823,7 @@
         <v>15448</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C568" s="4">
         <v>0.435631578766</v>
@@ -12844,7 +12844,7 @@
         <v>15449</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C569" s="5">
         <v>0.59085667124399999</v>
@@ -12865,7 +12865,7 @@
         <v>15450</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C570" s="4">
         <v>0.998186508355</v>
@@ -12886,7 +12886,7 @@
         <v>15451</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C571" s="5">
         <v>4.0537530426600004</v>
@@ -12907,7 +12907,7 @@
         <v>15452</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C572" s="4">
         <v>0.68958689243600002</v>
@@ -12928,7 +12928,7 @@
         <v>15453</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C573" s="5">
         <v>4.9185448811799999</v>
@@ -12949,7 +12949,7 @@
         <v>15454</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C574" s="4">
         <v>1.7011077532200001</v>
@@ -12970,7 +12970,7 @@
         <v>15455</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C575" s="5">
         <v>1.47061070285</v>
@@ -12991,7 +12991,7 @@
         <v>15456</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C576" s="4">
         <v>2.7907310376300001</v>
@@ -13012,7 +13012,7 @@
         <v>15458</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C577" s="5">
         <v>0.78102366848600002</v>
@@ -13033,7 +13033,7 @@
         <v>15459</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C578" s="4">
         <v>0.68768178219099996</v>
@@ -13054,7 +13054,7 @@
         <v>15460</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C579" s="5">
         <v>0</v>
@@ -13075,7 +13075,7 @@
         <v>15461</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C580" s="4">
         <v>0</v>
@@ -13096,7 +13096,7 @@
         <v>15462</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C581" s="5">
         <v>0.46278394541099999</v>
@@ -13117,7 +13117,7 @@
         <v>15464</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C582" s="4">
         <v>0.34757620880700002</v>
@@ -13138,7 +13138,7 @@
         <v>15465</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C583" s="5">
         <v>0.43935203106800003</v>
@@ -13159,7 +13159,7 @@
         <v>15466</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C584" s="4">
         <v>0.45302055077800002</v>
@@ -13180,7 +13180,7 @@
         <v>15473</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C585" s="5">
         <v>6.6221751435800003E-2</v>
@@ -13201,7 +13201,7 @@
         <v>15474</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C586" s="4">
         <v>7.65766865362</v>
@@ -13222,7 +13222,7 @@
         <v>15477</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C587" s="5">
         <v>8.3319282262099996</v>
@@ -13246,7 +13246,7 @@
         <v>15482</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C588" s="4">
         <v>1.10570620609</v>
@@ -13267,7 +13267,7 @@
         <v>15488</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C589" s="5">
         <v>2.3157624639100001</v>
@@ -13288,7 +13288,7 @@
         <v>15490</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C590" s="4">
         <v>1.65764375923</v>
@@ -13312,7 +13312,7 @@
         <v>15491</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C591" s="5">
         <v>6.6256788992700004</v>
@@ -13333,7 +13333,7 @@
         <v>15492</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C592" s="4">
         <v>2.74684019141</v>
@@ -13354,7 +13354,7 @@
         <v>15493</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C593" s="5">
         <v>3.7400823112500001</v>
@@ -13378,7 +13378,7 @@
         <v>15494</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C594" s="4">
         <v>4.9301855694799999</v>
@@ -13399,7 +13399,7 @@
         <v>15496</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C595" s="5">
         <v>1.7838365806000001</v>
@@ -13420,7 +13420,7 @@
         <v>15498</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C596" s="4">
         <v>9.5844330994900009</v>
@@ -13444,7 +13444,7 @@
         <v>15499</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C597" s="5">
         <v>3.5275960296500002</v>
@@ -13465,7 +13465,7 @@
         <v>15500</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C598" s="4">
         <v>0.435459556483</v>
@@ -13486,7 +13486,7 @@
         <v>15502</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C599" s="5">
         <v>9.8329471164499999E-2</v>
@@ -13507,7 +13507,7 @@
         <v>15504</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C600" s="4">
         <v>1.00363506903</v>
@@ -13528,7 +13528,7 @@
         <v>15505</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C601" s="5">
         <v>1.62110073546</v>
@@ -13549,7 +13549,7 @@
         <v>15506</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C602" s="4">
         <v>0.51503243596100001</v>
@@ -13570,7 +13570,7 @@
         <v>15509</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C603" s="5">
         <v>0.57390747635399997</v>
@@ -13591,7 +13591,7 @@
         <v>15510</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C604" s="4">
         <v>1.30610023024</v>
@@ -13612,7 +13612,7 @@
         <v>15511</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C605" s="5">
         <v>0.46488575509699998</v>
@@ -13633,7 +13633,7 @@
         <v>15512</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C606" s="4">
         <v>2.23597679993</v>
@@ -13657,7 +13657,7 @@
         <v>15513</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C607" s="5">
         <v>9.6638633189600007</v>
@@ -13681,7 +13681,7 @@
         <v>15515</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C608" s="4">
         <v>0.63275347898400003</v>
@@ -13702,7 +13702,7 @@
         <v>15516</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C609" s="5">
         <v>1.7318048718900001</v>
@@ -13726,7 +13726,7 @@
         <v>15518</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C610" s="4">
         <v>4.9761969530399996</v>
@@ -13747,7 +13747,7 @@
         <v>15519</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C611" s="5">
         <v>7.2886238296999997</v>
@@ -13768,7 +13768,7 @@
         <v>15520</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C612" s="4">
         <v>1.3866480435299999</v>
@@ -13789,7 +13789,7 @@
         <v>15521</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C613" s="5">
         <v>17.501522014999999</v>
@@ -13810,7 +13810,7 @@
         <v>15522</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C614" s="4">
         <v>11.092148549399999</v>
@@ -13831,7 +13831,7 @@
         <v>15523</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C615" s="5">
         <v>5.7385986818900001</v>
@@ -13852,7 +13852,7 @@
         <v>15525</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C616" s="4">
         <v>0.55786985482200002</v>
@@ -13873,7 +13873,7 @@
         <v>15527</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C617" s="5">
         <v>8.3967409292100008</v>
@@ -13894,7 +13894,7 @@
         <v>15528</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C618" s="4">
         <v>1.1149030530599999</v>
@@ -13915,7 +13915,7 @@
         <v>15529</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C619" s="5">
         <v>16.954862071400001</v>
@@ -13936,7 +13936,7 @@
         <v>15530</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C620" s="4">
         <v>14.000856735199999</v>
@@ -13957,7 +13957,7 @@
         <v>15531</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C621" s="5">
         <v>6.3441988300799999</v>
@@ -13978,7 +13978,7 @@
         <v>15532</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C622" s="4">
         <v>9.9291192267500001</v>
@@ -13999,7 +13999,7 @@
         <v>15533</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C623" s="5">
         <v>5.5438720692899999</v>
@@ -14020,7 +14020,7 @@
         <v>15535</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C624" s="4">
         <v>8.7666002933500007</v>
@@ -14041,7 +14041,7 @@
         <v>15536</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C625" s="5">
         <v>1.6699574964899999</v>
@@ -14062,7 +14062,7 @@
         <v>15538</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C626" s="4">
         <v>1.4548765554800001</v>
@@ -14083,7 +14083,7 @@
         <v>15540</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C627" s="5">
         <v>10.357518470900001</v>
@@ -14104,7 +14104,7 @@
         <v>15541</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C628" s="4">
         <v>5.5470721767400004</v>
@@ -14125,7 +14125,7 @@
         <v>15542</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C629" s="5">
         <v>3.79652087391</v>
@@ -14146,7 +14146,7 @@
         <v>15545</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C630" s="4">
         <v>2.6384714524300001</v>
@@ -14167,7 +14167,7 @@
         <v>15547</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C631" s="5">
         <v>6.6029920427300004</v>
@@ -14191,7 +14191,7 @@
         <v>15548</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C632" s="4">
         <v>7.5885032425499999</v>
@@ -14212,7 +14212,7 @@
         <v>15549</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C633" s="5">
         <v>0.46488575509699998</v>
@@ -14233,7 +14233,7 @@
         <v>15551</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C634" s="4">
         <v>7.3028079824100001</v>
@@ -14254,7 +14254,7 @@
         <v>15552</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C635" s="5">
         <v>4.3386471781999996</v>
@@ -14275,7 +14275,7 @@
         <v>15553</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C636" s="4">
         <v>0.28386831463599999</v>
@@ -14296,7 +14296,7 @@
         <v>15554</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C637" s="5">
         <v>0.79643259414500001</v>
@@ -14317,7 +14317,7 @@
         <v>15555</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C638" s="4">
         <v>2.41940651001</v>
@@ -14338,7 +14338,7 @@
         <v>15556</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C639" s="5">
         <v>5.0680158390400001</v>
@@ -14362,7 +14362,7 @@
         <v>15557</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C640" s="4">
         <v>3.9462258121299998</v>
@@ -14383,7 +14383,7 @@
         <v>15558</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C641" s="5">
         <v>7.3754702497000002</v>
@@ -14404,7 +14404,7 @@
         <v>15559</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C642" s="4">
         <v>2.0840240038500002</v>
@@ -14425,7 +14425,7 @@
         <v>15560</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C643" s="5">
         <v>3.6140447472699999</v>
@@ -14446,7 +14446,7 @@
         <v>15561</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C644" s="4">
         <v>4.2567276163500001</v>
@@ -14467,7 +14467,7 @@
         <v>15562</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C645" s="5">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>15563</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C646" s="4">
         <v>2.3224324161299998</v>
@@ -14509,7 +14509,7 @@
         <v>15564</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C647" s="5">
         <v>6.4805927007099999</v>
@@ -14530,7 +14530,7 @@
         <v>15565</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C648" s="4">
         <v>0.75650960883700002</v>
@@ -14551,7 +14551,7 @@
         <v>15566</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C649" s="5">
         <v>5.1364698786899998</v>
@@ -14575,7 +14575,7 @@
         <v>15567</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C650" s="4">
         <v>0.40919382498399998</v>
@@ -14596,7 +14596,7 @@
         <v>15568</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C651" s="5">
         <v>3.0288483586599999</v>
@@ -14617,7 +14617,7 @@
         <v>15569</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C652" s="4">
         <v>0.85032482837800005</v>
@@ -14641,7 +14641,7 @@
         <v>15570</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C653" s="5">
         <v>1.5681433491300001</v>
@@ -14662,7 +14662,7 @@
         <v>15582</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C654" s="4">
         <v>1.60883275137</v>
@@ -14683,7 +14683,7 @@
         <v>15588</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C655" s="5">
         <v>4.2025938687600002</v>
@@ -14704,7 +14704,7 @@
         <v>15595</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C656" s="4">
         <v>3.3935146662400002</v>
@@ -14725,7 +14725,7 @@
         <v>15597</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C657" s="5">
         <v>0.43287755751099999</v>
@@ -14746,7 +14746,7 @@
         <v>15604</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C658" s="4">
         <v>0.75271717356099999</v>
@@ -14767,7 +14767,7 @@
         <v>15605</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C659" s="5">
         <v>0.60361093195399995</v>
@@ -14788,7 +14788,7 @@
         <v>15608</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C660" s="4">
         <v>7.4757874380000002</v>
@@ -14809,7 +14809,7 @@
         <v>15610</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C661" s="5">
         <v>2.6550634131600002</v>
@@ -14830,7 +14830,7 @@
         <v>15612</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C662" s="4">
         <v>8.6151575102199995</v>
@@ -14851,7 +14851,7 @@
         <v>15613</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C663" s="5">
         <v>5.6846099698300003</v>
@@ -14872,7 +14872,7 @@
         <v>15616</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C664" s="4">
         <v>7.8562144115999999</v>
@@ -14893,7 +14893,7 @@
         <v>15618</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C665" s="5">
         <v>3.1043172759200002</v>
@@ -14914,7 +14914,7 @@
         <v>15620</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C666" s="4">
         <v>3.0888539915300002</v>
@@ -14935,7 +14935,7 @@
         <v>15621</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C667" s="5">
         <v>3.8201215733899998</v>
@@ -14956,7 +14956,7 @@
         <v>15629</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C668" s="4">
         <v>1.3651781781200001</v>
@@ -14977,7 +14977,7 @@
         <v>15635</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C669" s="5">
         <v>0.18556330108999999</v>
@@ -14998,7 +14998,7 @@
         <v>15636</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C670" s="4">
         <v>1.16324915312</v>
@@ -15019,7 +15019,7 @@
         <v>15637</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C671" s="5">
         <v>0.258499793669</v>
@@ -15040,7 +15040,7 @@
         <v>15639</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C672" s="4">
         <v>0</v>
@@ -15061,7 +15061,7 @@
         <v>15649</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C673" s="5">
         <v>2.7383456011199998</v>
@@ -15082,7 +15082,7 @@
         <v>15653</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C674" s="4">
         <v>1.2164698092899999</v>
@@ -15103,7 +15103,7 @@
         <v>15654</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C675" s="5">
         <v>0.42280069948299998</v>
@@ -15124,7 +15124,7 @@
         <v>15655</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C676" s="4">
         <v>1.2319332857</v>
@@ -15145,7 +15145,7 @@
         <v>15660</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C677" s="5">
         <v>15.682665475</v>
@@ -15166,7 +15166,7 @@
         <v>15665</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C678" s="4">
         <v>3.8890946563600002</v>
@@ -15187,7 +15187,7 @@
         <v>15668</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C679" s="5">
         <v>4.13651258317</v>
@@ -15208,7 +15208,7 @@
         <v>15671</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C680" s="4">
         <v>5.5076185006999996</v>
@@ -15229,7 +15229,7 @@
         <v>15674</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C681" s="5">
         <v>0.80835959481399999</v>
@@ -15250,7 +15250,7 @@
         <v>15675</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C682" s="4">
         <v>3.0257107587799998</v>
@@ -15271,7 +15271,7 @@
         <v>15678</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C683" s="5">
         <v>2.5746891764400002</v>
@@ -15292,7 +15292,7 @@
         <v>15682</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C684" s="4">
         <v>0.38916729265400002</v>
